--- a/AgreeSAp.xlsx
+++ b/AgreeSAp.xlsx
@@ -1,139 +1,216 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileSharing readOnlyRecommended="0" userName="hornedheck"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:revision xmlns:pm="smNativeData" day="1605827317" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1605827317" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1605827317" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1605827317"/>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Accuracy %</t>
+  </si>
+  <si>
+    <t>Time (ms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH TESTS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUICK SORT TEST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STR TEST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDEX OF TEST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATRIX MUL TEST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYCLES TEST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUNC TEST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPTY TEST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IFS TEST </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALIASING TEST </t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="#,##0\ &quot;₽&quot;;\-#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;₽&quot;;[Red]\-#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;₽&quot;;\-#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;₽&quot;;[Red]\-#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₽_-;\-* #,##0\ _₽_-;_-* &quot;-&quot;\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1605827317" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="220" lang="default"/>
+            <pm:cs face="Basic Roman" sz="220" lang="default"/>
+            <pm:ea face="Basic Roman" sz="220" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
     <font>
-      <b val="1"/>
+      <name val="Basic Sans"/>
+      <family val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1605827317" ulstyle="none" kern="1">
+            <pm:latin face="Basic Sans" sz="200" lang="default"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Basic Sans"/>
+      <family val="1"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1605827317" ulstyle="none" kern="1">
+            <pm:latin face="Basic Sans" sz="200" lang="default" weight="bold"/>
+            <pm:cs face="Basic Roman" sz="200" lang="default" weight="bold"/>
+            <pm:ea face="Basic Roman" sz="200" lang="default" weight="bold"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
   </fills>
   <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1605827317"/>
+        </ext>
+      </extLst>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1605827317">
+            <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+            <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
+          </pm:border>
+        </ext>
+      </extLst>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0"/>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:charStyles xmlns:pm="smNativeData" id="1605827317" count="1">
+        <pm:charStyle name="Обычный" fontId="0" Id="1"/>
+      </pm:charStyles>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -142,16 +219,16 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="D5D5D5"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="494949"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="EEECE1"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="1F497D"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4F81BD"/>
@@ -183,69 +260,11 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:ea typeface="Basic Roman"/>
+        <a:cs typeface="Basic Roman"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,60 +434,76 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr>
+        <a:prstTxWarp prst="textNoShape">
+          <a:avLst/>
+        </a:prstTxWarp>
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr>
+          <a:defRPr/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" view="normal" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.40"/>
+  <cols>
+    <col min="5" max="5" width="17.241071" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Success</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Accuracy %</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Time (ms)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="2:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MATH TESTS </t>
-        </is>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -477,20 +512,18 @@
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>27.77777777777778</v>
+        <v>27.7777777777777786</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">QUICK SORT TEST </t>
-        </is>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>7863</v>
@@ -499,20 +532,18 @@
         <v>11263</v>
       </c>
       <c r="E3" t="n">
-        <v>69.81266092515315</v>
+        <v>69.8126609251531534</v>
       </c>
       <c r="F3" t="n">
         <v>430</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">STR TEST </t>
-        </is>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1096</v>
@@ -521,20 +552,18 @@
         <v>1111</v>
       </c>
       <c r="E4" t="n">
-        <v>98.64986498649864</v>
+        <v>98.6498649864986419</v>
       </c>
       <c r="F4" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">INDEX OF TEST </t>
-        </is>
+      <c r="B5" t="s">
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>6518</v>
@@ -543,20 +572,18 @@
         <v>9024</v>
       </c>
       <c r="E5" t="n">
-        <v>72.22960992907801</v>
+        <v>72.2296099290780091</v>
       </c>
       <c r="F5" t="n">
         <v>218</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MATRIX MUL TEST </t>
-        </is>
+      <c r="B6" t="s">
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>4122</v>
@@ -565,20 +592,18 @@
         <v>6556</v>
       </c>
       <c r="E6" t="n">
-        <v>62.87370347773032</v>
+        <v>62.8737034777303165</v>
       </c>
       <c r="F6" t="n">
         <v>673</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CYCLES TEST </t>
-        </is>
+      <c r="B7" t="s">
+        <v>10</v>
       </c>
       <c r="C7" t="n">
         <v>21</v>
@@ -587,20 +612,18 @@
         <v>33</v>
       </c>
       <c r="E7" t="n">
-        <v>63.63636363636363</v>
+        <v>63.6363636363636331</v>
       </c>
       <c r="F7" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FUNC TEST </t>
-        </is>
+      <c r="B8" t="s">
+        <v>11</v>
       </c>
       <c r="C8" t="n">
         <v>18</v>
@@ -609,20 +632,18 @@
         <v>27</v>
       </c>
       <c r="E8" t="n">
-        <v>66.66666666666666</v>
+        <v>66.6666666666666572</v>
       </c>
       <c r="F8" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EMPTY TEST </t>
-        </is>
+      <c r="B9" t="s">
+        <v>12</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
@@ -631,20 +652,18 @@
         <v>18</v>
       </c>
       <c r="E9" t="n">
-        <v>27.77777777777778</v>
+        <v>27.7777777777777786</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">IFS TEST </t>
-        </is>
+      <c r="B10" t="s">
+        <v>13</v>
       </c>
       <c r="C10" t="n">
         <v>10</v>
@@ -659,14 +678,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ALIASING TEST </t>
-        </is>
+      <c r="B11" t="s">
+        <v>14</v>
       </c>
       <c r="C11" t="n">
         <v>4738</v>
@@ -675,20 +692,18 @@
         <v>8211</v>
       </c>
       <c r="E11" t="n">
-        <v>57.70308123249299</v>
+        <v>57.7030812324929911</v>
       </c>
       <c r="F11" t="n">
         <v>823</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>SUMMARY</t>
-        </is>
+      <c r="B12" t="s">
+        <v>15</v>
       </c>
       <c r="C12" t="n">
         <v>24396</v>
@@ -697,13 +712,37 @@
         <v>36281</v>
       </c>
       <c r="E12" t="n">
-        <v>67.24180700642209</v>
+        <v>67.2418070064220927</v>
       </c>
       <c r="F12" t="n">
         <v>2188</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <printOptions>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:pageFlags xmlns:pm="smNativeData" id="1605827317" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+      </ext>
+    </extLst>
+  </printOptions>
+  <pageMargins left="0.750000" right="0.750000" top="1.000000" bottom="1.000000" header="0.500000" footer="0.500000"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="1" pageOrder="overThenDown"/>
+  <headerFooter>
+    <extLst>
+      <ext uri="smNativeData">
+        <pm:header xmlns:pm="smNativeData" id="1605827317" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1605827317" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+      </ext>
+    </extLst>
+  </headerFooter>
+  <extLst>
+    <ext uri="smNativeData">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1605827317" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+        <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+        <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
+      </pm:sheetPrefs>
+    </ext>
+  </extLst>
 </worksheet>
 </file>